--- a/survey-parent/survey-settlement-impl/src/main/resources/template.xlsx
+++ b/survey-parent/survey-settlement-impl/src/main/resources/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaodao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\SurveyMonitorPlatform\survey-parent\survey-settlement-impl\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F477A5-D69F-46B7-85FC-5957DC795396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBBCD6-82EE-4968-A976-81403102D51C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="3675" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -38,61 +38,34 @@
     <t>工程质量控制资料表</t>
   </si>
   <si>
-    <t>CJ4—2—2</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
     <t xml:space="preserve">项目名称：   </t>
   </si>
   <si>
-    <t>盾构区间暗挖段</t>
-  </si>
-  <si>
     <t>监测点位示意图后附</t>
   </si>
   <si>
     <t>监测项目：</t>
   </si>
   <si>
-    <t>正线地表</t>
-  </si>
-  <si>
     <t>测读人员：</t>
   </si>
   <si>
-    <t>任安龙</t>
-  </si>
-  <si>
     <t>编制人员：</t>
   </si>
   <si>
-    <t>张新</t>
-  </si>
-  <si>
     <t>本次测读时间</t>
   </si>
   <si>
-    <t>2019.7.1</t>
-  </si>
-  <si>
     <t>上次测读时间</t>
   </si>
   <si>
-    <t>2019.6.30</t>
-  </si>
-  <si>
     <t>首次测读时间</t>
   </si>
   <si>
-    <t>2019.3.26</t>
-  </si>
-  <si>
     <t>报警值</t>
-  </si>
-  <si>
-    <t>±30mm</t>
   </si>
   <si>
     <t>序号</t>
@@ -155,7 +128,7 @@
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,12 +204,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -245,6 +212,25 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -256,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -385,44 +371,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,20 +447,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,18 +522,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -537,67 +540,82 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,326 +1068,296 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="61"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="G10" s="60"/>
+      <c r="H10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38" t="s">
+      <c r="I10" s="62"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="B11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -1380,6 +1368,18 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="A18:I18"/>
+    <mergeCell ref="E6:I9"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
